--- a/similarities/split_global/harmonic_similarity_timestamps_64.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_64.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,90 +484,102 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
+          <t>jaah_36</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['G:min7', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['A:min7', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:09.140000', '0:00:16.920000'), ('0:00:19.480000', '0:00:25.860000')]</t>
+          <t>('0:00:39.976000', '0:00:44.640000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:13.080000', '0:00:19.340000'), ('0:00:00.680000', '0:00:02.980000')]</t>
+          <t>('0:00:41.520000', '0:00:46.940000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=9.14', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=19.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=39.976</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=13.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=0.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-36#t=41.52</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['E:dim7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G#:dim7', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:18.700000', '0:00:20.830000')]</t>
+          <t>('0:00:12.560000', '0:00:19.540000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:17.420000', '0:01:21.620000')]</t>
+          <t>('0:00:01.180000', '0:00:06.140000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=18.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=12.56</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=77.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=1.18</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -576,594 +588,642 @@
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>isophonics_248</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>isophonics_287</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj']]</t>
+          <t>['F#/4', 'B', 'E/5']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['E', 'A', 'D']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:01.340000', '0:00:08.860000')]</t>
+          <t>('0:02:07.431000', '0:02:12.656000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:07.590000', '0:00:14.680000')]</t>
+          <t>('0:00:39.148775', '0:00:43.514126')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=1.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-248#t=127.431</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=39.148775</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_168</t>
+          <t>schubert-winterreise_20</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['Db:maj6/2', 'Eb', 'Db:maj6/2']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D', 'A:min7']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:52.487000', '0:00:58.251000')]</t>
+          <t>('0:00:47.580000', '0:00:50.040000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:01.148857', '0:00:06.931435')]</t>
+          <t>('0:00:39.040000', '0:00:46.100000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=52.487']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.58</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-168#t=1.148857']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-20#t=39.04</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:maj', 'B:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'B'], ['E', 'A', 'E']]</t>
+          <t>['F#:maj', 'C#:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:56.880000', '0:01:04.440000'), ('0:00:52.740000', '0:01:00.860000')]</t>
+          <t>('0:00:01.640000', '0:00:23.480000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:35.080113', '0:00:43.578616'), ('0:00:32.920657', '0:00:39.410634')]</t>
+          <t>('0:00:50.160000', '0:00:52.820000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=56.88', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=1.64</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=35.080113', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=32.920657']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=50.16</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>['Ab', 'Db/5', 'Ab', 'Db/5', 'Ab']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:43.140000', '0:01:00.240000')]</t>
+          <t>('0:04:21.828000', '0:04:35.800000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:04.080000', '0:01:13.880000')]</t>
+          <t>('0:02:08.760000', '0:02:14.600000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=43.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=261.828</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.08']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=128.76</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>jaah_13</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['Eb/5', 'Ab', 'Eb/3']]</t>
+          <t>['G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'A']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:26.923922', '0:01:32.322562')]</t>
+          <t>('0:00:18.060000', '0:00:20.600000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:04.250000', '0:00:09.179000')]</t>
+          <t>('0:00:06.590000', '0:00:14.660000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=86.923922']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=18.06</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>schubert-winterreise_103</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_33</t>
+          <t>jaah_32</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'A:maj']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'G']]</t>
+          <t>['G', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:01.020000', '0:01:08.700000')]</t>
+          <t>('0:00:00.600000', '0:00:09.940000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:02.252358', '0:00:05.805011')]</t>
+          <t>('0:00:11.550000', '0:00:25.740000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=61.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=0.6</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-33#t=2.252358']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A/3', 'E:7', 'A']]</t>
+          <t>['D#:min', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:58.557000', '0:01:02.834000')]</t>
+          <t>('0:00:09.100000', '0:00:13.860000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:25.220000', '0:00:27.170000')]</t>
+          <t>('0:01:20.200000', '0:01:26.860000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=9.1</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=80.2</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_212</t>
+          <t>schubert-winterreise_192</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
+          <t>['F:min', 'F#/A#', 'F:min/C']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
+          <t>['F:min', 'F#:maj/A#', 'F:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:23.460000', '0:00:26.480000')]</t>
+          <t>('0:03:09.260000', '0:03:11.680000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:59.640000', '0:01:02.580000')]</t>
+          <t>('0:00:46.100000', '0:00:49.040000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-212#t=23.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=189.26</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=59.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=46.1</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
+          <t>isophonics_72</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:maj', 'D:maj', 'G:maj'], ['G:maj', 'C:maj', 'G/3']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G'], ['G', 'C', 'G']]</t>
+          <t>['D', 'A', 'D']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:12.446000', '0:00:16.277000'), ('0:00:05.146000', '0:00:09.474000')]</t>
+          <t>('0:00:00.780000', '0:00:24.860000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:43.100468', '0:00:51.657021'), ('0:00:17.581738', '0:00:30.271443')]</t>
+          <t>('0:00:32.074829', '0:00:37.705668')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=12.446', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=5.146']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=0.78</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=43.100468', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=17.581738']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-72#t=32.074829</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>schubert-winterreise_139</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>schubert-winterreise_41</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G', 'D:7', 'G']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:03:46.620000', '0:03:52.800000')]</t>
+          <t>('0:00:01.260000', '0:00:05.920000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:11.550000', '0:00:25.740000')]</t>
+          <t>('0:00:11.160000', '0:00:16.300000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=1.26</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>isophonics_251</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>jaah_15</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D', 'A']]</t>
+          <t>['D', 'G:7', 'D']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Bb:maj', 'Eb:maj', 'Bb:maj', 'Eb:maj', 'Bb:maj']]</t>
+          <t>['C', 'F:7', 'C']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:28.450816', '0:00:43.926916')]</t>
+          <t>('0:02:19.240204', '0:02:24.766553')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:03:37.493000', '0:03:43.713000')]</t>
+          <t>('0:00:00.400000', '0:00:05.010000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=28.450816']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-251#t=139.240204</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=217.493']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-15#t=0.4</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:7', 'A#:maj']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:7/b7', 'Bb:maj']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:08.540000', '0:01:24.540000')]</t>
+          <t>('0:00:59.500000', '0:01:08.120000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:49.217000', '0:00:55.415000')]</t>
+          <t>('0:04:22.920000', '0:04:29.360000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=68.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=59.5</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=49.217']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=262.92</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>jaah_78</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:49.560000', '0:00:55.720000')]</t>
+          <t>('0:00:00.800000', '0:00:09.280000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:17.480000', '0:00:19.720000')]</t>
+          <t>('0:00:49.560000', '0:00:55.720000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=0.8</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=17.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
